--- a/ig/homecareobservation/StructureDefinition-medcom-homecareobservation-messageheader.xlsx
+++ b/ig/homecareobservation/StructureDefinition-medcom-homecareobservation-messageheader.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-trial-use</t>
+    <t>1.1.1-trial-use</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T10:47:31+00:00</t>
+    <t>2025-09-17T12:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1389,7 +1389,7 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 medcom-hcobs-definition-url:SHALL reference a MedCom HomeCare Observation MessageDefinition whose canonical URL starts with
-https://medcomfhir.dk/ig/messagedefinitions/MessageDefinition-MedComHomeCareObservationMessageDefinition1.—that is, any version 1.x of the message definition {matches('^http://medcomfhir.dk/ig/messagedefinitions/MessageDefinition/MedComHomeCareObservationMessageDefinition1[.][0-9]{1,2}$')}</t>
+https://medcomfhir.dk/ig/messagedefinitions/MessageDefinition-MedComHomeCareObservationMessageDefinition|1.—that is, any version 1.x of the message definition {matches('^http://medcomfhir.dk/ig/messagedefinitions/MessageDefinition/MedComHomeCareObservationMessageDefinition|1[.][0-9]{1,2}$')}</t>
   </si>
   <si>
     <t>Not directly supported.</t>

--- a/ig/homecareobservation/StructureDefinition-medcom-homecareobservation-messageheader.xlsx
+++ b/ig/homecareobservation/StructureDefinition-medcom-homecareobservation-messageheader.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T12:37:39+00:00</t>
+    <t>2025-12-19T07:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
